--- a/biology/Médecine/Jean_Hess/Jean_Hess.xlsx
+++ b/biology/Médecine/Jean_Hess/Jean_Hess.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean Joseph Xavier Hess (Courtavon, 16 mars 1862 - Nice, 21 septembre 1926) est un médecin, journaliste et explorateur français.
-Il est le fils de Joseph Xavier Hess, dentiste, et de Marie Anne Schull[1]. 
+Il est le fils de Joseph Xavier Hess, dentiste, et de Marie Anne Schull. 
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fait ses études à Montbéliard puis à Brest et Toulon (1880) et y devient aide-médecin de la marine (12 octobre 1883). De 1883 à 1887, il sert sur plusieurs bâtiments mais ayant reçu des blâmes et ses dettes s’accumulant, il décide de devenir journaliste pour subsister.
 Démissionnant définitivement de la Marine le 20 décembre 1890, il travaille pour des journaux du Sud de la France puis devient rédacteur au petit parisien où il rencontre Victor Schœlcher.
@@ -549,7 +563,9 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>L'extrême sud algérien et le Touat, Annales de Géographie, 1896-1897, p. 147-168
 A l'Ile du Diable ; enquête d'un reporter aux Iles du Salut et à Cayenne, 1898
